--- a/excel/wzrost.xlsx
+++ b/excel/wzrost.xlsx
@@ -36,7 +36,7 @@
     <t>2020-12-16</t>
   </si>
   <si>
-    <t>199.9</t>
+    <t>180</t>
   </si>
 </sst>
 </file>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -369,24 +369,24 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -407,7 +407,6 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -419,9 +418,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -433,7 +430,6 @@
     <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5758,6 +5754,12 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
+    <row r="450" spans="1:10">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:10">
+      <c r="A451" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
